--- a/redos/Runaway Regex Test Data.xlsx
+++ b/redos/Runaway Regex Test Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Bad word</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Length</t>
   </si>
   <si>
-    <t>Response Time</t>
+    <t>Response Time (web form)</t>
+  </si>
+  <si>
+    <t>Response Time (request)</t>
   </si>
   <si>
     <t>Length (log 10)</t>
@@ -108,10 +111,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -135,11 +142,42 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1205343123"/>
-        <c:axId val="2129103166"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$34</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="8818549"/>
+        <c:axId val="2110886088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1205343123"/>
+        <c:axId val="8818549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -191,10 +229,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129103166"/>
+        <c:crossAx val="2110886088"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129103166"/>
+        <c:axId val="2110886088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -269,7 +307,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1205343123"/>
+        <c:crossAx val="8818549"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -345,22 +383,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="660962640"/>
-        <c:axId val="1702107877"/>
+        <c:axId val="440249480"/>
+        <c:axId val="2096446050"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="660962640"/>
+        <c:axId val="440249480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,10 +450,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1702107877"/>
+        <c:crossAx val="2096446050"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1702107877"/>
+        <c:axId val="2096446050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660962640"/>
+        <c:crossAx val="440249480"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -520,7 +558,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -545,7 +583,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -777,13 +815,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="21.0"/>
+    <col customWidth="1" min="3" max="3" width="19.63"/>
+    <col customWidth="1" min="7" max="7" width="21.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -794,13 +838,16 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -811,13 +858,13 @@
       <c r="B3" s="1">
         <v>0.997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>10.0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1.0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.784</v>
       </c>
     </row>
@@ -828,13 +875,13 @@
       <c r="B4" s="1">
         <v>0.927</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>100.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.802</v>
       </c>
     </row>
@@ -845,13 +892,16 @@
       <c r="B5" s="1">
         <v>0.544</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
+        <v>0.538</v>
+      </c>
+      <c r="E5" s="1">
         <v>1000.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>3.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.685</v>
       </c>
     </row>
@@ -862,13 +912,16 @@
       <c r="B6" s="1">
         <v>0.523</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="E6" s="1">
         <v>10000.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>4.0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.957</v>
       </c>
     </row>
@@ -879,13 +932,16 @@
       <c r="B7" s="1">
         <v>0.532</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
+        <v>0.538</v>
+      </c>
+      <c r="E7" s="1">
         <v>100000.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>5.0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.931</v>
       </c>
     </row>
@@ -896,6 +952,9 @@
       <c r="B8" s="1">
         <v>0.538</v>
       </c>
+      <c r="C8" s="1">
+        <v>1.641</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -904,6 +963,9 @@
       <c r="B9" s="1">
         <v>0.524</v>
       </c>
+      <c r="C9" s="1">
+        <v>2.465</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -912,6 +974,9 @@
       <c r="B10" s="1">
         <v>0.524</v>
       </c>
+      <c r="C10" s="1">
+        <v>1.586</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -920,6 +985,9 @@
       <c r="B11" s="1">
         <v>0.532</v>
       </c>
+      <c r="C11" s="1">
+        <v>1.073</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -928,6 +996,9 @@
       <c r="B12" s="1">
         <v>0.519</v>
       </c>
+      <c r="C12" s="1">
+        <v>1.561</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -936,6 +1007,9 @@
       <c r="B13" s="1">
         <v>0.526</v>
       </c>
+      <c r="C13" s="1">
+        <v>1.586</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -944,6 +1018,9 @@
       <c r="B14" s="1">
         <v>0.533</v>
       </c>
+      <c r="C14" s="1">
+        <v>2.653</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -952,6 +1029,9 @@
       <c r="B15" s="1">
         <v>0.525</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.899</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -960,6 +1040,9 @@
       <c r="B16" s="1">
         <v>0.529</v>
       </c>
+      <c r="C16" s="1">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -968,6 +1051,9 @@
       <c r="B17" s="1">
         <v>0.538</v>
       </c>
+      <c r="C17" s="1">
+        <v>0.683</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -976,6 +1062,9 @@
       <c r="B18" s="1">
         <v>0.534</v>
       </c>
+      <c r="C18" s="1">
+        <v>0.593</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -984,6 +1073,9 @@
       <c r="B19" s="1">
         <v>0.551</v>
       </c>
+      <c r="C19" s="1">
+        <v>0.601</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -992,6 +1084,9 @@
       <c r="B20" s="1">
         <v>0.542</v>
       </c>
+      <c r="C20" s="1">
+        <v>0.609</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -1000,6 +1095,9 @@
       <c r="B21" s="1">
         <v>0.562</v>
       </c>
+      <c r="C21" s="1">
+        <v>0.611</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -1008,6 +1106,9 @@
       <c r="B22" s="1">
         <v>1.506</v>
       </c>
+      <c r="C22" s="1">
+        <v>0.632</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -1016,6 +1117,9 @@
       <c r="B23" s="1">
         <v>0.706</v>
       </c>
+      <c r="C23" s="1">
+        <v>0.742</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
@@ -1024,6 +1128,9 @@
       <c r="B24" s="1">
         <v>0.831</v>
       </c>
+      <c r="C24" s="1">
+        <v>0.838</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -1032,6 +1139,9 @@
       <c r="B25" s="1">
         <v>1.109</v>
       </c>
+      <c r="C25" s="1">
+        <v>1.116</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
@@ -1040,6 +1150,9 @@
       <c r="B26" s="1">
         <v>1.754</v>
       </c>
+      <c r="C26" s="1">
+        <v>1.748</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
@@ -1048,6 +1161,9 @@
       <c r="B27" s="1">
         <v>2.945</v>
       </c>
+      <c r="C27" s="1">
+        <v>2.887</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
@@ -1056,6 +1172,9 @@
       <c r="B28" s="1">
         <v>6.198</v>
       </c>
+      <c r="C28" s="1">
+        <v>5.298</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
@@ -1064,6 +1183,9 @@
       <c r="B29" s="1">
         <v>10.35</v>
       </c>
+      <c r="C29" s="1">
+        <v>10.306</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
@@ -1072,6 +1194,9 @@
       <c r="B30" s="1">
         <v>20.857</v>
       </c>
+      <c r="C30" s="1">
+        <v>20.691</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
@@ -1080,6 +1205,9 @@
       <c r="B31" s="1">
         <v>42.432</v>
       </c>
+      <c r="C31" s="1">
+        <v>40.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
@@ -1088,6 +1216,9 @@
       <c r="B32" s="1">
         <v>83.046</v>
       </c>
+      <c r="C32" s="1">
+        <v>79.966</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
@@ -1096,6 +1227,9 @@
       <c r="B33" s="1">
         <v>173.448</v>
       </c>
+      <c r="C33" s="1">
+        <v>164.343</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
@@ -1103,6 +1237,9 @@
       </c>
       <c r="B34" s="1">
         <v>352.367</v>
+      </c>
+      <c r="C34" s="1">
+        <v>348.86</v>
       </c>
     </row>
   </sheetData>
